--- a/biology/Botanique/Stipitococcaceae/Stipitococcaceae.xlsx
+++ b/biology/Botanique/Stipitococcaceae/Stipitococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stipitococcaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Rhizochloridales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Stipitococcus, dérivé du latin stipes, tige, et du grec κοκκοσ / kokkos, « graine ; pépin ; baie », littéralement « baie avec une tige », en référence à la morphologie de l'organisme qui se présente comme une « cellule  attachée à une tige ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Stipitococcus se présente sous la forme de cellules épiphytes, grégaires, petites, attachées à une très longue tige hyaline (transparent comme du verre), arrondie à la base, apiculée à l'apex, et parfois de forme circulaire irrégulièrement étalée au sommet ; le contenu de cellules est vert vif, les chromatophores sont pariétaux, courbé et de forme irrégulière[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Stipitococcus se présente sous la forme de cellules épiphytes, grégaires, petites, attachées à une très longue tige hyaline (transparent comme du verre), arrondie à la base, apiculée à l'apex, et parfois de forme circulaire irrégulièrement étalée au sommet ; le contenu de cellules est vert vif, les chromatophores sont pariétaux, courbé et de forme irrégulière.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (17 avril 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (17 avril 2022) :
 Rhizolekane Pascher, 1932
 Stipitochloris Pascher ex Deflandre, 1952
 Stipitococcus West &amp; G.S.West, 1898 - genre type
